--- a/data/trans_bre/P12A1_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_3_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,0</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,27</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,74</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,01</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>42,22%</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>35,3%</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>42,1%</t>
+          <t>38,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>45,62%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>39,11%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>58,6%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6,02%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-11,71%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 33,8</t>
+          <t>-1,23; 5,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 30,27</t>
+          <t>-0,08; 5,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,04; 31,62</t>
+          <t>-0,23; 4,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 19,2</t>
+          <t>-0,13; 6,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 107,0</t>
+          <t>-2,64; 3,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 86,22</t>
+          <t>-4,49; 1,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,37; 108,36</t>
+          <t>-19,6; 108,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 62,99</t>
+          <t>-4,36; 124,87</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-5,33; 104,89</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-6,21; 170,62</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-26,78; 51,19</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-33,99; 20,77</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,98</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,34</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,01</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,19</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>40,36%</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>31,57%</t>
+          <t>65,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>54,85%</t>
+          <t>56,6%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>56,26%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>57,9%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>65,82%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6,06%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 23,07</t>
+          <t>0,15; 7,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 30,42</t>
+          <t>0,1; 5,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 27,99</t>
+          <t>-0,09; 7,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 43,71</t>
+          <t>-0,21; 8,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,0; 71,71</t>
+          <t>-0,77; 12,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 101,52</t>
+          <t>-3,79; 5,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 98,79</t>
+          <t>-0,53; 163,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 167,16</t>
+          <t>0,48; 149,51</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 160,39</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-6,53; 172,6</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-15,55; 223,67</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-43,39; 119,44</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,87</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,35</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-0,47</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,96%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>36,52%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>39,16%</t>
+          <t>54,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6,39%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-12,58%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-4,78%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,68; 38,56</t>
+          <t>-4,23; 11,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 47,84</t>
+          <t>-7,16; 7,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 52,9</t>
+          <t>-11,23; 5,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-9,06; 8,02</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-24,32; 81,72</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 156,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 150,38</t>
+          <t>-41,27; 239,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-50,2; 105,5</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-53,61; 53,48</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-66,71; 140,5</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,83</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,38</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,93</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,15</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,07%</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,01%</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,3%</t>
+          <t>50,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>40,69%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>29,16%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>46,2%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18,23%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-8,23%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 22,74</t>
+          <t>0,71; 5,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,78; 26,62</t>
+          <t>0,39; 4,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,55; 23,68</t>
+          <t>-0,19; 4,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 21,0</t>
+          <t>0,42; 5,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 59,08</t>
+          <t>-1,54; 4,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,4; 74,17</t>
+          <t>-3,67; 2,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,32; 66,03</t>
+          <t>8,29; 104,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 63,04</t>
+          <t>4,8; 86,66</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 73,55</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>3,9; 98,83</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-15,52; 57,68</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-29,88; 23,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P12A1_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_3_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,37</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,72</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,19</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,12</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-1,35</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>38,3%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>45,62%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>39,11%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>58,6%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>6,02%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-11,71%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.252499732775728</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.607413392514893</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.22043915299184</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.456589274962601</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.4989472533188488</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-1.301795677296848</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.3733942787333209</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.4332180933092586</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.4027180330534965</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.6515420457054611</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.0601791460351789</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.113381509233857</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,23; 5,3</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,08; 5,86</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,23; 4,65</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 6,92</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-2,64; 3,71</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-4,49; 1,98</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-19,6; 108,33</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-4,36; 124,87</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-5,33; 104,89</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-6,21; 170,62</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-26,78; 51,19</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-33,99; 20,77</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.376531224848964</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.3321145174885105</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.1818554117966794</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.1381470387834325</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-2.636315722570117</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-4.441426368438067</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2114312392034285</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.06794004682850509</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.04550891152643805</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.02371337128702465</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.2678225270617759</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.3371086968408853</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.075727683109887</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.923599708342895</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.671739490543803</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7.478611982000574</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.713572577674992</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>2.018126978421848</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.080580339431374</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.239608717844756</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.060397824246461</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.85886030711118</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.5118623475112946</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.2153542222703158</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,62</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,79</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,21</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,07</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,95</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>65,97%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>56,6%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>56,26%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>57,9%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>65,82%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>6,06%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,15; 7,3</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 5,65</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,09; 7,43</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,21; 8,95</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-0,77; 12,97</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-3,79; 5,9</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-0,53; 163,32</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,48; 149,51</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-3,74; 160,39</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-6,53; 172,6</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-15,55; 223,67</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-43,39; 119,44</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.271276616076766</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.846145382519927</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.048698561762012</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>4.093080507809065</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>4.949448578469575</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.5883112443743233</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.6094301052837082</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.5919026266776422</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.5415252570331531</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.5924912930012211</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.6581633822061405</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.08415318413981117</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,23</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,99</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,47</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>54,18%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>6,39%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-12,58%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-4,78%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.1589249279544136</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.1351283459948872</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.1641756185867291</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.1398792260235243</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.7676173092610356</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-3.582733056788643</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.04386068781299002</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.02282075697371408</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.04193485791074253</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.06225844828463541</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.1554539148237108</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.4240730116198526</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,23; 11,21</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,16; 7,68</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-11,23; 5,72</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-9,06; 8,02</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-41,27; 239,22</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-50,2; 105,5</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-53,61; 53,48</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-66,71; 140,5</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.431881146633124</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.586848710945669</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.813284287709738</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>8.89583274653509</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>12.96788593029757</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>5.943882692679288</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.531335270625136</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.5481170681171</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.525127596842646</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.740706729101711</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>2.23669372164441</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>1.237514457638913</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,06</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,01</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,02</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,48</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-0,86</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>50,09%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>40,69%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>29,16%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>46,2%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>18,23%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-8,23%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>2.802327791528225</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.8336225306538838</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.988362239483707</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.07212733400885352</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.3327206868711664</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.07943482809722485</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.1288196521867523</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.007722485753851485</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,71; 5,47</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,39; 4,62</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,19; 4,36</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,42; 5,62</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-1,54; 4,08</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-3,67; 2,06</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>8,29; 104,77</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>4,8; 86,66</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-2,72; 73,55</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>3,9; 98,83</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-15,52; 57,68</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-29,88; 23,71</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.188369328525209</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.853607239378125</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.02228633402441</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-8.239478853646252</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.6106442399561163</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.487445911384444</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.5380366357555685</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.6372642806396104</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.631629927385111</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.662918600840672</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.604664913609934</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>8.676151961389346</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>1.956745420975904</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.101122450015163</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.5100077126807673</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.638270736888631</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.696412160075953</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.485204905532711</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.968081628792179</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.264642832269801</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.47815281182623</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.7878656236628728</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.4450684677940011</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4089092512440918</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.2903317135750603</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.5070164421399577</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.1823341644134511</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.07579193238851187</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.2214023742975679</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.3151756240433577</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1707636022454376</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.6294826847270346</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-1.538140966556758</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-3.585410855503754</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.02585092380395388</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.04678590243114176</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.02269809850871915</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.07714240745201066</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.1552190447682328</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.2955443168967973</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.030861172940479</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.628719332361574</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.228232470720869</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.870188511629464</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>4.082681935787251</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>2.247804245151416</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.006184186640595</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.8997906416634917</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.7226493493706801</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.051688724555253</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.5767624094709921</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.250929285441755</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
